--- a/Code/Results/Cases/Case_3_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018295275495392</v>
+        <v>1.052410633050744</v>
       </c>
       <c r="D2">
-        <v>1.039330569047395</v>
+        <v>1.05882101653686</v>
       </c>
       <c r="E2">
-        <v>1.032916199102949</v>
+        <v>1.059444172564484</v>
       </c>
       <c r="F2">
-        <v>1.045912040978699</v>
+        <v>1.070699348676744</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058145211954588</v>
+        <v>1.046354416577647</v>
       </c>
       <c r="J2">
-        <v>1.039942216175264</v>
+        <v>1.057433380636787</v>
       </c>
       <c r="K2">
-        <v>1.050267867205239</v>
+        <v>1.061552204676095</v>
       </c>
       <c r="L2">
-        <v>1.043935242383216</v>
+        <v>1.062173660132338</v>
       </c>
       <c r="M2">
-        <v>1.056766763150777</v>
+        <v>1.073398489800253</v>
       </c>
       <c r="N2">
-        <v>1.016492466290873</v>
+        <v>1.022861484814707</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024220970194581</v>
+        <v>1.05363592763987</v>
       </c>
       <c r="D3">
-        <v>1.043984842578368</v>
+        <v>1.059790069819249</v>
       </c>
       <c r="E3">
-        <v>1.037863145077875</v>
+        <v>1.060510131537757</v>
       </c>
       <c r="F3">
-        <v>1.051030029816772</v>
+        <v>1.071794264610962</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06014247362169</v>
+        <v>1.046668289042889</v>
       </c>
       <c r="J3">
-        <v>1.044072439774057</v>
+        <v>1.058307806429355</v>
       </c>
       <c r="K3">
-        <v>1.054084239478198</v>
+        <v>1.06233497373276</v>
       </c>
       <c r="L3">
-        <v>1.048033439463784</v>
+        <v>1.063053212892584</v>
       </c>
       <c r="M3">
-        <v>1.061049094072757</v>
+        <v>1.074309128906949</v>
       </c>
       <c r="N3">
-        <v>1.017923637948806</v>
+        <v>1.023159309003675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027962240884592</v>
+        <v>1.054428602001437</v>
       </c>
       <c r="D4">
-        <v>1.046924598930465</v>
+        <v>1.06041668855398</v>
       </c>
       <c r="E4">
-        <v>1.040991979107229</v>
+        <v>1.061199976530561</v>
       </c>
       <c r="F4">
-        <v>1.054265926431836</v>
+        <v>1.072502710990073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061389552017239</v>
+        <v>1.046869603793193</v>
       </c>
       <c r="J4">
-        <v>1.046676742078785</v>
+        <v>1.058872918845883</v>
       </c>
       <c r="K4">
-        <v>1.056487843746595</v>
+        <v>1.062840434686546</v>
       </c>
       <c r="L4">
-        <v>1.050619613235461</v>
+        <v>1.063621840152145</v>
       </c>
       <c r="M4">
-        <v>1.063750720430097</v>
+        <v>1.074897738777412</v>
       </c>
       <c r="N4">
-        <v>1.018825337871521</v>
+        <v>1.023351609821489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02951378709437</v>
+        <v>1.054761802604691</v>
       </c>
       <c r="D5">
-        <v>1.048143963735014</v>
+        <v>1.060680018271911</v>
       </c>
       <c r="E5">
-        <v>1.042290797486233</v>
+        <v>1.061490011677388</v>
       </c>
       <c r="F5">
-        <v>1.055608914490883</v>
+        <v>1.072800533633042</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061903332210696</v>
+        <v>1.046953810212442</v>
       </c>
       <c r="J5">
-        <v>1.047755916681617</v>
+        <v>1.059110325519867</v>
       </c>
       <c r="K5">
-        <v>1.057483162632729</v>
+        <v>1.063052681419723</v>
       </c>
       <c r="L5">
-        <v>1.051691764692228</v>
+        <v>1.06386077159235</v>
       </c>
       <c r="M5">
-        <v>1.064870548603667</v>
+        <v>1.075145039161107</v>
       </c>
       <c r="N5">
-        <v>1.019198801627894</v>
+        <v>1.02343235481995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029773078099167</v>
+        <v>1.054817746175314</v>
       </c>
       <c r="D6">
-        <v>1.048347751829571</v>
+        <v>1.060724226596678</v>
       </c>
       <c r="E6">
-        <v>1.04250792519746</v>
+        <v>1.061538711303281</v>
       </c>
       <c r="F6">
-        <v>1.055833409978529</v>
+        <v>1.072850538905271</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061988992679656</v>
+        <v>1.04696792384931</v>
       </c>
       <c r="J6">
-        <v>1.047936214124964</v>
+        <v>1.059150177402083</v>
       </c>
       <c r="K6">
-        <v>1.05764940921031</v>
+        <v>1.063088303994059</v>
       </c>
       <c r="L6">
-        <v>1.051870917351182</v>
+        <v>1.063900882249534</v>
       </c>
       <c r="M6">
-        <v>1.065057656684538</v>
+        <v>1.075186553137202</v>
       </c>
       <c r="N6">
-        <v>1.019261185001501</v>
+        <v>1.023445906504309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027983055086316</v>
+        <v>1.054433054397996</v>
       </c>
       <c r="D7">
-        <v>1.046940956120045</v>
+        <v>1.060420207573894</v>
       </c>
       <c r="E7">
-        <v>1.04100939804794</v>
+        <v>1.061203851897882</v>
       </c>
       <c r="F7">
-        <v>1.054283938835483</v>
+        <v>1.072506690542157</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061396457951593</v>
+        <v>1.046870730638266</v>
       </c>
       <c r="J7">
-        <v>1.04669122280819</v>
+        <v>1.058876091738952</v>
       </c>
       <c r="K7">
-        <v>1.056501202025157</v>
+        <v>1.062843271715605</v>
       </c>
       <c r="L7">
-        <v>1.050633997800436</v>
+        <v>1.063625033234192</v>
       </c>
       <c r="M7">
-        <v>1.063765745399236</v>
+        <v>1.074901043810517</v>
       </c>
       <c r="N7">
-        <v>1.018830349876019</v>
+        <v>1.023352689125963</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020317776579285</v>
+        <v>1.052824764009626</v>
       </c>
       <c r="D8">
-        <v>1.040918817480408</v>
+        <v>1.059148600688907</v>
       </c>
       <c r="E8">
-        <v>1.034603443097036</v>
+        <v>1.05980439852136</v>
       </c>
       <c r="F8">
-        <v>1.047657853884159</v>
+        <v>1.071069388849474</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058829789736049</v>
+        <v>1.04646086031387</v>
       </c>
       <c r="J8">
-        <v>1.04135258265708</v>
+        <v>1.057729042306945</v>
       </c>
       <c r="K8">
-        <v>1.051571639242637</v>
+        <v>1.061816961482385</v>
       </c>
       <c r="L8">
-        <v>1.045334233615737</v>
+        <v>1.062471013549757</v>
       </c>
       <c r="M8">
-        <v>1.058228763669743</v>
+        <v>1.073706376355858</v>
       </c>
       <c r="N8">
-        <v>1.016981320276055</v>
+        <v>1.022962221194039</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006049763975226</v>
+        <v>1.049989345443611</v>
       </c>
       <c r="D9">
-        <v>1.029722862802968</v>
+        <v>1.056904595554941</v>
       </c>
       <c r="E9">
-        <v>1.022727046259188</v>
+        <v>1.057339099476137</v>
       </c>
       <c r="F9">
-        <v>1.035364645323377</v>
+        <v>1.068536358545457</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053943231215856</v>
+        <v>1.04572495906196</v>
       </c>
       <c r="J9">
-        <v>1.031390683439102</v>
+        <v>1.055702396781951</v>
       </c>
       <c r="K9">
-        <v>1.042351435321906</v>
+        <v>1.060000454646397</v>
       </c>
       <c r="L9">
-        <v>1.035461848698602</v>
+        <v>1.060433602401648</v>
       </c>
       <c r="M9">
-        <v>1.047908878012845</v>
+        <v>1.071596327920691</v>
       </c>
       <c r="N9">
-        <v>1.013525745376288</v>
+        <v>1.022271006670483</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.995952752192326</v>
+        <v>1.048098008274269</v>
       </c>
       <c r="D10">
-        <v>1.021814814357009</v>
+        <v>1.055406350946041</v>
       </c>
       <c r="E10">
-        <v>1.014359867088425</v>
+        <v>1.055695995368305</v>
       </c>
       <c r="F10">
-        <v>1.026698276140504</v>
+        <v>1.066847404595085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050415140481588</v>
+        <v>1.045225157880776</v>
       </c>
       <c r="J10">
-        <v>1.024327872106113</v>
+        <v>1.054347611736267</v>
       </c>
       <c r="K10">
-        <v>1.035801058133112</v>
+        <v>1.058784016273562</v>
       </c>
       <c r="L10">
-        <v>1.028474601331647</v>
+        <v>1.059072667589385</v>
       </c>
       <c r="M10">
-        <v>1.040601655354787</v>
+        <v>1.070186292293277</v>
       </c>
       <c r="N10">
-        <v>1.011072974093892</v>
+        <v>1.021808057693352</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9914234471593133</v>
+        <v>1.047278761434493</v>
       </c>
       <c r="D11">
-        <v>1.018272398745378</v>
+        <v>1.054757052624044</v>
       </c>
       <c r="E11">
-        <v>1.01061665255137</v>
+        <v>1.054984602038404</v>
       </c>
       <c r="F11">
-        <v>1.022819988721286</v>
+        <v>1.066115993136683</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048816849068406</v>
+        <v>1.045006551689061</v>
       </c>
       <c r="J11">
-        <v>1.021157425207892</v>
+        <v>1.05376008620811</v>
       </c>
       <c r="K11">
-        <v>1.032857759689048</v>
+        <v>1.058255985630782</v>
       </c>
       <c r="L11">
-        <v>1.025341093687574</v>
+        <v>1.058482724461339</v>
       </c>
       <c r="M11">
-        <v>1.037324013856759</v>
+        <v>1.069574928345286</v>
       </c>
       <c r="N11">
-        <v>1.009971449286423</v>
+        <v>1.021607084691959</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.989715689638882</v>
+        <v>1.04697441146663</v>
       </c>
       <c r="D12">
-        <v>1.016937621309894</v>
+        <v>1.054515790905988</v>
       </c>
       <c r="E12">
-        <v>1.009206925201801</v>
+        <v>1.054720369933649</v>
       </c>
       <c r="F12">
-        <v>1.021359216135231</v>
+        <v>1.06584430066341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048211953588395</v>
+        <v>1.04492502227038</v>
       </c>
       <c r="J12">
-        <v>1.019961768748998</v>
+        <v>1.053541717355593</v>
       </c>
       <c r="K12">
-        <v>1.031747361705522</v>
+        <v>1.058059654488505</v>
       </c>
       <c r="L12">
-        <v>1.024159835524415</v>
+        <v>1.058263494600363</v>
       </c>
       <c r="M12">
-        <v>1.036088337301144</v>
+        <v>1.069347717873348</v>
       </c>
       <c r="N12">
-        <v>1.009555978120101</v>
+        <v>1.021532356943342</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9900831875232442</v>
+        <v>1.047039697651604</v>
       </c>
       <c r="D13">
-        <v>1.017224814581169</v>
+        <v>1.054567546154214</v>
       </c>
       <c r="E13">
-        <v>1.009510213079952</v>
+        <v>1.054777048136345</v>
       </c>
       <c r="F13">
-        <v>1.021673493643241</v>
+        <v>1.065902580259872</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048342223849768</v>
+        <v>1.044942525518714</v>
       </c>
       <c r="J13">
-        <v>1.020219075906462</v>
+        <v>1.053588564377892</v>
       </c>
       <c r="K13">
-        <v>1.031986338931007</v>
+        <v>1.058101777118404</v>
       </c>
       <c r="L13">
-        <v>1.024414022793733</v>
+        <v>1.058310524635452</v>
       </c>
       <c r="M13">
-        <v>1.036354238065064</v>
+        <v>1.069396460860242</v>
       </c>
       <c r="N13">
-        <v>1.009645390526598</v>
+        <v>1.021548389808478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9912828116929372</v>
+        <v>1.047253604707138</v>
       </c>
       <c r="D14">
-        <v>1.018162459948106</v>
+        <v>1.054737111562561</v>
       </c>
       <c r="E14">
-        <v>1.010500526199625</v>
+        <v>1.054962760311721</v>
       </c>
       <c r="F14">
-        <v>1.022699661031855</v>
+        <v>1.066093535238266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048767080820948</v>
+        <v>1.044999819163199</v>
       </c>
       <c r="J14">
-        <v>1.021058966361383</v>
+        <v>1.053742038546654</v>
       </c>
       <c r="K14">
-        <v>1.032766329688335</v>
+        <v>1.05823976086302</v>
       </c>
       <c r="L14">
-        <v>1.025243810921271</v>
+        <v>1.05846460487312</v>
       </c>
       <c r="M14">
-        <v>1.037222251069647</v>
+        <v>1.069556149565863</v>
       </c>
       <c r="N14">
-        <v>1.009937237522616</v>
+        <v>1.021600909254472</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9920185224829854</v>
+        <v>1.04738539384235</v>
       </c>
       <c r="D15">
-        <v>1.01873762278433</v>
+        <v>1.05484157532408</v>
       </c>
       <c r="E15">
-        <v>1.011108089059137</v>
+        <v>1.055077185140673</v>
       </c>
       <c r="F15">
-        <v>1.023329197820814</v>
+        <v>1.066211187052961</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049027343348883</v>
+        <v>1.045035076012697</v>
       </c>
       <c r="J15">
-        <v>1.021574027532689</v>
+        <v>1.053836581025234</v>
       </c>
       <c r="K15">
-        <v>1.033244605013184</v>
+        <v>1.05832475106033</v>
       </c>
       <c r="L15">
-        <v>1.025752738860439</v>
+        <v>1.058559525677361</v>
       </c>
       <c r="M15">
-        <v>1.037754612605532</v>
+        <v>1.069654522758232</v>
       </c>
       <c r="N15">
-        <v>1.01011620496659</v>
+        <v>1.021633257948128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9962498890191334</v>
+        <v>1.04815237277685</v>
       </c>
       <c r="D16">
-        <v>1.022047322060529</v>
+        <v>1.055449431095212</v>
       </c>
       <c r="E16">
-        <v>1.014605653780015</v>
+        <v>1.055743209816993</v>
       </c>
       <c r="F16">
-        <v>1.026952907203586</v>
+        <v>1.066895944109834</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050519675368273</v>
+        <v>1.045239619893901</v>
       </c>
       <c r="J16">
-        <v>1.02453582418748</v>
+        <v>1.054386584910358</v>
       </c>
       <c r="K16">
-        <v>1.035994053857039</v>
+        <v>1.058819032350797</v>
       </c>
       <c r="L16">
-        <v>1.028680194381214</v>
+        <v>1.059111806391858</v>
       </c>
       <c r="M16">
-        <v>1.040816692975902</v>
+        <v>1.070226849361605</v>
       </c>
       <c r="N16">
-        <v>1.011145215058397</v>
+        <v>1.02182138477065</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9988608346628062</v>
+        <v>1.048633400346967</v>
       </c>
       <c r="D17">
-        <v>1.024090948608122</v>
+        <v>1.055830575401252</v>
       </c>
       <c r="E17">
-        <v>1.016766546062663</v>
+        <v>1.056161010495177</v>
       </c>
       <c r="F17">
-        <v>1.029191418779938</v>
+        <v>1.067325450997629</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051436458931542</v>
+        <v>1.045367338479081</v>
       </c>
       <c r="J17">
-        <v>1.026362859810248</v>
+        <v>1.054731347374353</v>
       </c>
       <c r="K17">
-        <v>1.037689361967336</v>
+        <v>1.059128731895526</v>
       </c>
       <c r="L17">
-        <v>1.030486847647301</v>
+        <v>1.059458062823221</v>
       </c>
       <c r="M17">
-        <v>1.042706269739866</v>
+        <v>1.070585637290569</v>
       </c>
       <c r="N17">
-        <v>1.011779859283546</v>
+        <v>1.021939254154816</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000368711220205</v>
+        <v>1.048913948216473</v>
       </c>
       <c r="D18">
-        <v>1.025271646476706</v>
+        <v>1.056052837571767</v>
       </c>
       <c r="E18">
-        <v>1.018015455528332</v>
+        <v>1.056404714517583</v>
       </c>
       <c r="F18">
-        <v>1.030485072644985</v>
+        <v>1.067575967147656</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051964435141416</v>
+        <v>1.045441623396969</v>
       </c>
       <c r="J18">
-        <v>1.027417796322531</v>
+        <v>1.054932355253793</v>
       </c>
       <c r="K18">
-        <v>1.038667964763725</v>
+        <v>1.059309248576308</v>
       </c>
       <c r="L18">
-        <v>1.031530299424285</v>
+        <v>1.059659965765732</v>
       </c>
       <c r="M18">
-        <v>1.043797553781187</v>
+        <v>1.070794834217871</v>
       </c>
       <c r="N18">
-        <v>1.012146257372658</v>
+        <v>1.022007955895657</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00088035687529</v>
+        <v>1.049009603217148</v>
       </c>
       <c r="D19">
-        <v>1.0256723497088</v>
+        <v>1.056128614292766</v>
       </c>
       <c r="E19">
-        <v>1.018439387215828</v>
+        <v>1.056487812676602</v>
       </c>
       <c r="F19">
-        <v>1.030924172446853</v>
+        <v>1.067661385367451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052143331035412</v>
+        <v>1.045466916829918</v>
       </c>
       <c r="J19">
-        <v>1.027775713598805</v>
+        <v>1.055000879158348</v>
       </c>
       <c r="K19">
-        <v>1.038999936414508</v>
+        <v>1.059370778787871</v>
       </c>
       <c r="L19">
-        <v>1.03188436797522</v>
+        <v>1.059728798871984</v>
       </c>
       <c r="M19">
-        <v>1.044167842266865</v>
+        <v>1.070866151766407</v>
       </c>
       <c r="N19">
-        <v>1.012270559826822</v>
+        <v>1.022031373032131</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9985822730692073</v>
+        <v>1.048581793490623</v>
       </c>
       <c r="D20">
-        <v>1.023872865572987</v>
+        <v>1.055789687699493</v>
       </c>
       <c r="E20">
-        <v>1.016535901369372</v>
+        <v>1.056116183623234</v>
       </c>
       <c r="F20">
-        <v>1.028952501355409</v>
+        <v>1.06727936980533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051338801027305</v>
+        <v>1.04535365733001</v>
       </c>
       <c r="J20">
-        <v>1.026167955315447</v>
+        <v>1.054694366554506</v>
       </c>
       <c r="K20">
-        <v>1.03750853814089</v>
+        <v>1.059095517088088</v>
       </c>
       <c r="L20">
-        <v>1.030294087905111</v>
+        <v>1.059420919266777</v>
       </c>
       <c r="M20">
-        <v>1.042504668783745</v>
+        <v>1.070547150818258</v>
       </c>
       <c r="N20">
-        <v>1.011712161544849</v>
+        <v>1.021926613005843</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9909302675730048</v>
+        <v>1.047190615677759</v>
       </c>
       <c r="D21">
-        <v>1.017886880629695</v>
+        <v>1.05468718108676</v>
       </c>
       <c r="E21">
-        <v>1.010209448149454</v>
+        <v>1.054908072409431</v>
       </c>
       <c r="F21">
-        <v>1.022398049265455</v>
+        <v>1.066037304144056</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048642285927859</v>
+        <v>1.044982956708299</v>
       </c>
       <c r="J21">
-        <v>1.020812146577787</v>
+        <v>1.053696847985967</v>
       </c>
       <c r="K21">
-        <v>1.032537123618766</v>
+        <v>1.05819913353718</v>
       </c>
       <c r="L21">
-        <v>1.024999946948234</v>
+        <v>1.058419234817826</v>
       </c>
       <c r="M21">
-        <v>1.036967155488516</v>
+        <v>1.069509128617692</v>
       </c>
       <c r="N21">
-        <v>1.00985147350122</v>
+        <v>1.021585445726833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859713583197985</v>
+        <v>1.046315664209475</v>
       </c>
       <c r="D22">
-        <v>1.014012833767235</v>
+        <v>1.053993508326826</v>
       </c>
       <c r="E22">
-        <v>1.006119190919477</v>
+        <v>1.054148548285714</v>
       </c>
       <c r="F22">
-        <v>1.018159363882267</v>
+        <v>1.065256288358661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046881624568151</v>
+        <v>1.044747976783444</v>
       </c>
       <c r="J22">
-        <v>1.017339874548216</v>
+        <v>1.053068882636585</v>
       </c>
       <c r="K22">
-        <v>1.029311712712176</v>
+        <v>1.057634401035225</v>
       </c>
       <c r="L22">
-        <v>1.021570392356782</v>
+        <v>1.057788864331591</v>
       </c>
       <c r="M22">
-        <v>1.033379464360111</v>
+        <v>1.068855772516386</v>
       </c>
       <c r="N22">
-        <v>1.008644824042146</v>
+        <v>1.021370492171343</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9886148087652563</v>
+        <v>1.046779518228064</v>
       </c>
       <c r="D23">
-        <v>1.016077441045742</v>
+        <v>1.05436128351041</v>
       </c>
       <c r="E23">
-        <v>1.008298642075929</v>
+        <v>1.054551180794331</v>
       </c>
       <c r="F23">
-        <v>1.02041799634113</v>
+        <v>1.065670327566077</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047821389541162</v>
+        <v>1.044872724888932</v>
       </c>
       <c r="J23">
-        <v>1.019190946323357</v>
+        <v>1.053401853873219</v>
       </c>
       <c r="K23">
-        <v>1.031031393649036</v>
+        <v>1.057933884876455</v>
       </c>
       <c r="L23">
-        <v>1.023398429114144</v>
+        <v>1.058123090232841</v>
       </c>
       <c r="M23">
-        <v>1.035291832444549</v>
+        <v>1.069202196651117</v>
       </c>
       <c r="N23">
-        <v>1.009288115579999</v>
+        <v>1.021484485714395</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9987081894235202</v>
+        <v>1.048605112492233</v>
       </c>
       <c r="D24">
-        <v>1.023971442786475</v>
+        <v>1.055808163255376</v>
       </c>
       <c r="E24">
-        <v>1.01664015523021</v>
+        <v>1.056136438932662</v>
       </c>
       <c r="F24">
-        <v>1.02906049494087</v>
+        <v>1.067300191937296</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051382949300899</v>
+        <v>1.045359839904922</v>
       </c>
       <c r="J24">
-        <v>1.026256057379266</v>
+        <v>1.054711076861702</v>
       </c>
       <c r="K24">
-        <v>1.037590276216442</v>
+        <v>1.059110525818727</v>
       </c>
       <c r="L24">
-        <v>1.030381219602493</v>
+        <v>1.059437703034554</v>
       </c>
       <c r="M24">
-        <v>1.042595797097243</v>
+        <v>1.070564541439589</v>
       </c>
       <c r="N24">
-        <v>1.011742762889061</v>
+        <v>1.021932325149851</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009835722784743</v>
+        <v>1.050722547293474</v>
       </c>
       <c r="D25">
-        <v>1.03269153312999</v>
+        <v>1.057485116605341</v>
       </c>
       <c r="E25">
-        <v>1.025872382121368</v>
+        <v>1.057976358906149</v>
       </c>
       <c r="F25">
-        <v>1.038621347489751</v>
+        <v>1.069191250888794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055252154629258</v>
+        <v>1.04591682746964</v>
       </c>
       <c r="J25">
-        <v>1.03403654975933</v>
+        <v>1.056226978936944</v>
       </c>
       <c r="K25">
-        <v>1.044802699585341</v>
+        <v>1.060471019730468</v>
       </c>
       <c r="L25">
-        <v>1.038081912971792</v>
+        <v>1.060960787204833</v>
       </c>
       <c r="M25">
-        <v>1.050648304969533</v>
+        <v>1.072142410604031</v>
       </c>
       <c r="N25">
-        <v>1.014444081506754</v>
+        <v>1.022450078181999</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052410633050744</v>
+        <v>1.018295275495393</v>
       </c>
       <c r="D2">
-        <v>1.05882101653686</v>
+        <v>1.039330569047395</v>
       </c>
       <c r="E2">
-        <v>1.059444172564484</v>
+        <v>1.032916199102949</v>
       </c>
       <c r="F2">
-        <v>1.070699348676744</v>
+        <v>1.045912040978699</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046354416577647</v>
+        <v>1.058145211954588</v>
       </c>
       <c r="J2">
-        <v>1.057433380636787</v>
+        <v>1.039942216175264</v>
       </c>
       <c r="K2">
-        <v>1.061552204676095</v>
+        <v>1.050267867205239</v>
       </c>
       <c r="L2">
-        <v>1.062173660132338</v>
+        <v>1.043935242383216</v>
       </c>
       <c r="M2">
-        <v>1.073398489800253</v>
+        <v>1.056766763150777</v>
       </c>
       <c r="N2">
-        <v>1.022861484814707</v>
+        <v>1.016492466290873</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05363592763987</v>
+        <v>1.024220970194581</v>
       </c>
       <c r="D3">
-        <v>1.059790069819249</v>
+        <v>1.043984842578368</v>
       </c>
       <c r="E3">
-        <v>1.060510131537757</v>
+        <v>1.037863145077875</v>
       </c>
       <c r="F3">
-        <v>1.071794264610962</v>
+        <v>1.051030029816772</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046668289042889</v>
+        <v>1.060142473621689</v>
       </c>
       <c r="J3">
-        <v>1.058307806429355</v>
+        <v>1.044072439774057</v>
       </c>
       <c r="K3">
-        <v>1.06233497373276</v>
+        <v>1.054084239478198</v>
       </c>
       <c r="L3">
-        <v>1.063053212892584</v>
+        <v>1.048033439463784</v>
       </c>
       <c r="M3">
-        <v>1.074309128906949</v>
+        <v>1.061049094072756</v>
       </c>
       <c r="N3">
-        <v>1.023159309003675</v>
+        <v>1.017923637948806</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054428602001437</v>
+        <v>1.027962240884592</v>
       </c>
       <c r="D4">
-        <v>1.06041668855398</v>
+        <v>1.046924598930465</v>
       </c>
       <c r="E4">
-        <v>1.061199976530561</v>
+        <v>1.040991979107228</v>
       </c>
       <c r="F4">
-        <v>1.072502710990073</v>
+        <v>1.054265926431836</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046869603793193</v>
+        <v>1.061389552017239</v>
       </c>
       <c r="J4">
-        <v>1.058872918845883</v>
+        <v>1.046676742078785</v>
       </c>
       <c r="K4">
-        <v>1.062840434686546</v>
+        <v>1.056487843746595</v>
       </c>
       <c r="L4">
-        <v>1.063621840152145</v>
+        <v>1.050619613235461</v>
       </c>
       <c r="M4">
-        <v>1.074897738777412</v>
+        <v>1.063750720430096</v>
       </c>
       <c r="N4">
-        <v>1.023351609821489</v>
+        <v>1.018825337871521</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054761802604691</v>
+        <v>1.029513787094368</v>
       </c>
       <c r="D5">
-        <v>1.060680018271911</v>
+        <v>1.048143963735013</v>
       </c>
       <c r="E5">
-        <v>1.061490011677388</v>
+        <v>1.042290797486231</v>
       </c>
       <c r="F5">
-        <v>1.072800533633042</v>
+        <v>1.055608914490882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046953810212442</v>
+        <v>1.061903332210696</v>
       </c>
       <c r="J5">
-        <v>1.059110325519867</v>
+        <v>1.047755916681616</v>
       </c>
       <c r="K5">
-        <v>1.063052681419723</v>
+        <v>1.057483162632728</v>
       </c>
       <c r="L5">
-        <v>1.06386077159235</v>
+        <v>1.051691764692226</v>
       </c>
       <c r="M5">
-        <v>1.075145039161107</v>
+        <v>1.064870548603665</v>
       </c>
       <c r="N5">
-        <v>1.02343235481995</v>
+        <v>1.019198801627893</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054817746175314</v>
+        <v>1.029773078099167</v>
       </c>
       <c r="D6">
-        <v>1.060724226596678</v>
+        <v>1.04834775182957</v>
       </c>
       <c r="E6">
-        <v>1.061538711303281</v>
+        <v>1.04250792519746</v>
       </c>
       <c r="F6">
-        <v>1.072850538905271</v>
+        <v>1.05583340997853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04696792384931</v>
+        <v>1.061988992679656</v>
       </c>
       <c r="J6">
-        <v>1.059150177402083</v>
+        <v>1.047936214124964</v>
       </c>
       <c r="K6">
-        <v>1.063088303994059</v>
+        <v>1.05764940921031</v>
       </c>
       <c r="L6">
-        <v>1.063900882249534</v>
+        <v>1.051870917351182</v>
       </c>
       <c r="M6">
-        <v>1.075186553137202</v>
+        <v>1.065057656684538</v>
       </c>
       <c r="N6">
-        <v>1.023445906504309</v>
+        <v>1.019261185001501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054433054397996</v>
+        <v>1.027983055086317</v>
       </c>
       <c r="D7">
-        <v>1.060420207573894</v>
+        <v>1.046940956120046</v>
       </c>
       <c r="E7">
-        <v>1.061203851897882</v>
+        <v>1.04100939804794</v>
       </c>
       <c r="F7">
-        <v>1.072506690542157</v>
+        <v>1.054283938835483</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046870730638266</v>
+        <v>1.061396457951593</v>
       </c>
       <c r="J7">
-        <v>1.058876091738952</v>
+        <v>1.046691222808191</v>
       </c>
       <c r="K7">
-        <v>1.062843271715605</v>
+        <v>1.056501202025158</v>
       </c>
       <c r="L7">
-        <v>1.063625033234192</v>
+        <v>1.050633997800436</v>
       </c>
       <c r="M7">
-        <v>1.074901043810517</v>
+        <v>1.063765745399236</v>
       </c>
       <c r="N7">
-        <v>1.023352689125963</v>
+        <v>1.018830349876019</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052824764009626</v>
+        <v>1.020317776579286</v>
       </c>
       <c r="D8">
-        <v>1.059148600688907</v>
+        <v>1.040918817480409</v>
       </c>
       <c r="E8">
-        <v>1.05980439852136</v>
+        <v>1.034603443097037</v>
       </c>
       <c r="F8">
-        <v>1.071069388849474</v>
+        <v>1.04765785388416</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04646086031387</v>
+        <v>1.058829789736049</v>
       </c>
       <c r="J8">
-        <v>1.057729042306945</v>
+        <v>1.04135258265708</v>
       </c>
       <c r="K8">
-        <v>1.061816961482385</v>
+        <v>1.051571639242638</v>
       </c>
       <c r="L8">
-        <v>1.062471013549757</v>
+        <v>1.045334233615737</v>
       </c>
       <c r="M8">
-        <v>1.073706376355858</v>
+        <v>1.058228763669744</v>
       </c>
       <c r="N8">
-        <v>1.022962221194039</v>
+        <v>1.016981320276055</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049989345443611</v>
+        <v>1.006049763975227</v>
       </c>
       <c r="D9">
-        <v>1.056904595554941</v>
+        <v>1.029722862802969</v>
       </c>
       <c r="E9">
-        <v>1.057339099476137</v>
+        <v>1.022727046259189</v>
       </c>
       <c r="F9">
-        <v>1.068536358545457</v>
+        <v>1.035364645323377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04572495906196</v>
+        <v>1.053943231215856</v>
       </c>
       <c r="J9">
-        <v>1.055702396781951</v>
+        <v>1.031390683439102</v>
       </c>
       <c r="K9">
-        <v>1.060000454646397</v>
+        <v>1.042351435321907</v>
       </c>
       <c r="L9">
-        <v>1.060433602401648</v>
+        <v>1.035461848698602</v>
       </c>
       <c r="M9">
-        <v>1.071596327920691</v>
+        <v>1.047908878012845</v>
       </c>
       <c r="N9">
-        <v>1.022271006670483</v>
+        <v>1.013525745376288</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048098008274269</v>
+        <v>0.9959527521923268</v>
       </c>
       <c r="D10">
-        <v>1.055406350946041</v>
+        <v>1.021814814357009</v>
       </c>
       <c r="E10">
-        <v>1.055695995368305</v>
+        <v>1.014359867088426</v>
       </c>
       <c r="F10">
-        <v>1.066847404595085</v>
+        <v>1.026698276140505</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045225157880776</v>
+        <v>1.050415140481588</v>
       </c>
       <c r="J10">
-        <v>1.054347611736267</v>
+        <v>1.024327872106113</v>
       </c>
       <c r="K10">
-        <v>1.058784016273562</v>
+        <v>1.035801058133113</v>
       </c>
       <c r="L10">
-        <v>1.059072667589385</v>
+        <v>1.028474601331647</v>
       </c>
       <c r="M10">
-        <v>1.070186292293277</v>
+        <v>1.040601655354788</v>
       </c>
       <c r="N10">
-        <v>1.021808057693352</v>
+        <v>1.011072974093892</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047278761434493</v>
+        <v>0.9914234471593135</v>
       </c>
       <c r="D11">
-        <v>1.054757052624044</v>
+        <v>1.018272398745379</v>
       </c>
       <c r="E11">
-        <v>1.054984602038404</v>
+        <v>1.010616652551371</v>
       </c>
       <c r="F11">
-        <v>1.066115993136683</v>
+        <v>1.022819988721286</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045006551689061</v>
+        <v>1.048816849068406</v>
       </c>
       <c r="J11">
-        <v>1.05376008620811</v>
+        <v>1.021157425207893</v>
       </c>
       <c r="K11">
-        <v>1.058255985630782</v>
+        <v>1.032857759689048</v>
       </c>
       <c r="L11">
-        <v>1.058482724461339</v>
+        <v>1.025341093687574</v>
       </c>
       <c r="M11">
-        <v>1.069574928345286</v>
+        <v>1.037324013856759</v>
       </c>
       <c r="N11">
-        <v>1.021607084691959</v>
+        <v>1.009971449286423</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04697441146663</v>
+        <v>0.9897156896388828</v>
       </c>
       <c r="D12">
-        <v>1.054515790905988</v>
+        <v>1.016937621309894</v>
       </c>
       <c r="E12">
-        <v>1.054720369933649</v>
+        <v>1.009206925201802</v>
       </c>
       <c r="F12">
-        <v>1.06584430066341</v>
+        <v>1.021359216135232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04492502227038</v>
+        <v>1.048211953588396</v>
       </c>
       <c r="J12">
-        <v>1.053541717355593</v>
+        <v>1.019961768748999</v>
       </c>
       <c r="K12">
-        <v>1.058059654488505</v>
+        <v>1.031747361705523</v>
       </c>
       <c r="L12">
-        <v>1.058263494600363</v>
+        <v>1.024159835524416</v>
       </c>
       <c r="M12">
-        <v>1.069347717873348</v>
+        <v>1.036088337301145</v>
       </c>
       <c r="N12">
-        <v>1.021532356943342</v>
+        <v>1.009555978120101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047039697651604</v>
+        <v>0.9900831875232451</v>
       </c>
       <c r="D13">
-        <v>1.054567546154214</v>
+        <v>1.01722481458117</v>
       </c>
       <c r="E13">
-        <v>1.054777048136345</v>
+        <v>1.009510213079953</v>
       </c>
       <c r="F13">
-        <v>1.065902580259872</v>
+        <v>1.021673493643242</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044942525518714</v>
+        <v>1.048342223849768</v>
       </c>
       <c r="J13">
-        <v>1.053588564377892</v>
+        <v>1.020219075906462</v>
       </c>
       <c r="K13">
-        <v>1.058101777118404</v>
+        <v>1.031986338931008</v>
       </c>
       <c r="L13">
-        <v>1.058310524635452</v>
+        <v>1.024414022793734</v>
       </c>
       <c r="M13">
-        <v>1.069396460860242</v>
+        <v>1.036354238065065</v>
       </c>
       <c r="N13">
-        <v>1.021548389808478</v>
+        <v>1.009645390526598</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047253604707138</v>
+        <v>0.9912828116929364</v>
       </c>
       <c r="D14">
-        <v>1.054737111562561</v>
+        <v>1.018162459948105</v>
       </c>
       <c r="E14">
-        <v>1.054962760311721</v>
+        <v>1.010500526199625</v>
       </c>
       <c r="F14">
-        <v>1.066093535238266</v>
+        <v>1.022699661031854</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044999819163199</v>
+        <v>1.048767080820947</v>
       </c>
       <c r="J14">
-        <v>1.053742038546654</v>
+        <v>1.021058966361382</v>
       </c>
       <c r="K14">
-        <v>1.05823976086302</v>
+        <v>1.032766329688334</v>
       </c>
       <c r="L14">
-        <v>1.05846460487312</v>
+        <v>1.02524381092127</v>
       </c>
       <c r="M14">
-        <v>1.069556149565863</v>
+        <v>1.037222251069646</v>
       </c>
       <c r="N14">
-        <v>1.021600909254472</v>
+        <v>1.009937237522616</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04738539384235</v>
+        <v>0.9920185224829865</v>
       </c>
       <c r="D15">
-        <v>1.05484157532408</v>
+        <v>1.018737622784331</v>
       </c>
       <c r="E15">
-        <v>1.055077185140673</v>
+        <v>1.011108089059138</v>
       </c>
       <c r="F15">
-        <v>1.066211187052961</v>
+        <v>1.023329197820815</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045035076012697</v>
+        <v>1.049027343348884</v>
       </c>
       <c r="J15">
-        <v>1.053836581025234</v>
+        <v>1.02157402753269</v>
       </c>
       <c r="K15">
-        <v>1.05832475106033</v>
+        <v>1.033244605013185</v>
       </c>
       <c r="L15">
-        <v>1.058559525677361</v>
+        <v>1.02575273886044</v>
       </c>
       <c r="M15">
-        <v>1.069654522758232</v>
+        <v>1.037754612605533</v>
       </c>
       <c r="N15">
-        <v>1.021633257948128</v>
+        <v>1.01011620496659</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04815237277685</v>
+        <v>0.9962498890191318</v>
       </c>
       <c r="D16">
-        <v>1.055449431095212</v>
+        <v>1.022047322060528</v>
       </c>
       <c r="E16">
-        <v>1.055743209816993</v>
+        <v>1.014605653780013</v>
       </c>
       <c r="F16">
-        <v>1.066895944109834</v>
+        <v>1.026952907203585</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045239619893901</v>
+        <v>1.050519675368272</v>
       </c>
       <c r="J16">
-        <v>1.054386584910358</v>
+        <v>1.024535824187479</v>
       </c>
       <c r="K16">
-        <v>1.058819032350797</v>
+        <v>1.035994053857038</v>
       </c>
       <c r="L16">
-        <v>1.059111806391858</v>
+        <v>1.028680194381213</v>
       </c>
       <c r="M16">
-        <v>1.070226849361605</v>
+        <v>1.0408166929759</v>
       </c>
       <c r="N16">
-        <v>1.02182138477065</v>
+        <v>1.011145215058397</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048633400346967</v>
+        <v>0.9988608346628075</v>
       </c>
       <c r="D17">
-        <v>1.055830575401252</v>
+        <v>1.024090948608123</v>
       </c>
       <c r="E17">
-        <v>1.056161010495177</v>
+        <v>1.016766546062664</v>
       </c>
       <c r="F17">
-        <v>1.067325450997629</v>
+        <v>1.029191418779938</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045367338479081</v>
+        <v>1.051436458931542</v>
       </c>
       <c r="J17">
-        <v>1.054731347374353</v>
+        <v>1.026362859810249</v>
       </c>
       <c r="K17">
-        <v>1.059128731895526</v>
+        <v>1.037689361967337</v>
       </c>
       <c r="L17">
-        <v>1.059458062823221</v>
+        <v>1.030486847647301</v>
       </c>
       <c r="M17">
-        <v>1.070585637290569</v>
+        <v>1.042706269739867</v>
       </c>
       <c r="N17">
-        <v>1.021939254154816</v>
+        <v>1.011779859283546</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048913948216473</v>
+        <v>1.000368711220206</v>
       </c>
       <c r="D18">
-        <v>1.056052837571767</v>
+        <v>1.025271646476706</v>
       </c>
       <c r="E18">
-        <v>1.056404714517583</v>
+        <v>1.018015455528333</v>
       </c>
       <c r="F18">
-        <v>1.067575967147656</v>
+        <v>1.030485072644986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045441623396969</v>
+        <v>1.051964435141416</v>
       </c>
       <c r="J18">
-        <v>1.054932355253793</v>
+        <v>1.027417796322532</v>
       </c>
       <c r="K18">
-        <v>1.059309248576308</v>
+        <v>1.038667964763725</v>
       </c>
       <c r="L18">
-        <v>1.059659965765732</v>
+        <v>1.031530299424285</v>
       </c>
       <c r="M18">
-        <v>1.070794834217871</v>
+        <v>1.043797553781188</v>
       </c>
       <c r="N18">
-        <v>1.022007955895657</v>
+        <v>1.012146257372659</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049009603217148</v>
+        <v>1.000880356875289</v>
       </c>
       <c r="D19">
-        <v>1.056128614292766</v>
+        <v>1.0256723497088</v>
       </c>
       <c r="E19">
-        <v>1.056487812676602</v>
+        <v>1.018439387215827</v>
       </c>
       <c r="F19">
-        <v>1.067661385367451</v>
+        <v>1.030924172446853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045466916829918</v>
+        <v>1.052143331035412</v>
       </c>
       <c r="J19">
-        <v>1.055000879158348</v>
+        <v>1.027775713598805</v>
       </c>
       <c r="K19">
-        <v>1.059370778787871</v>
+        <v>1.038999936414508</v>
       </c>
       <c r="L19">
-        <v>1.059728798871984</v>
+        <v>1.031884367975219</v>
       </c>
       <c r="M19">
-        <v>1.070866151766407</v>
+        <v>1.044167842266864</v>
       </c>
       <c r="N19">
-        <v>1.022031373032131</v>
+        <v>1.012270559826822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048581793490623</v>
+        <v>0.9985822730692079</v>
       </c>
       <c r="D20">
-        <v>1.055789687699493</v>
+        <v>1.023872865572987</v>
       </c>
       <c r="E20">
-        <v>1.056116183623234</v>
+        <v>1.016535901369372</v>
       </c>
       <c r="F20">
-        <v>1.06727936980533</v>
+        <v>1.028952501355409</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04535365733001</v>
+        <v>1.051338801027305</v>
       </c>
       <c r="J20">
-        <v>1.054694366554506</v>
+        <v>1.026167955315448</v>
       </c>
       <c r="K20">
-        <v>1.059095517088088</v>
+        <v>1.03750853814089</v>
       </c>
       <c r="L20">
-        <v>1.059420919266777</v>
+        <v>1.030294087905112</v>
       </c>
       <c r="M20">
-        <v>1.070547150818258</v>
+        <v>1.042504668783745</v>
       </c>
       <c r="N20">
-        <v>1.021926613005843</v>
+        <v>1.011712161544849</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047190615677759</v>
+        <v>0.990930267573005</v>
       </c>
       <c r="D21">
-        <v>1.05468718108676</v>
+        <v>1.017886880629695</v>
       </c>
       <c r="E21">
-        <v>1.054908072409431</v>
+        <v>1.010209448149454</v>
       </c>
       <c r="F21">
-        <v>1.066037304144056</v>
+        <v>1.022398049265455</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044982956708299</v>
+        <v>1.04864228592786</v>
       </c>
       <c r="J21">
-        <v>1.053696847985967</v>
+        <v>1.020812146577787</v>
       </c>
       <c r="K21">
-        <v>1.05819913353718</v>
+        <v>1.032537123618767</v>
       </c>
       <c r="L21">
-        <v>1.058419234817826</v>
+        <v>1.024999946948233</v>
       </c>
       <c r="M21">
-        <v>1.069509128617692</v>
+        <v>1.036967155488516</v>
       </c>
       <c r="N21">
-        <v>1.021585445726833</v>
+        <v>1.009851473501221</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046315664209475</v>
+        <v>0.9859713583197971</v>
       </c>
       <c r="D22">
-        <v>1.053993508326826</v>
+        <v>1.014012833767234</v>
       </c>
       <c r="E22">
-        <v>1.054148548285714</v>
+        <v>1.006119190919476</v>
       </c>
       <c r="F22">
-        <v>1.065256288358661</v>
+        <v>1.018159363882266</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044747976783444</v>
+        <v>1.04688162456815</v>
       </c>
       <c r="J22">
-        <v>1.053068882636585</v>
+        <v>1.017339874548214</v>
       </c>
       <c r="K22">
-        <v>1.057634401035225</v>
+        <v>1.029311712712175</v>
       </c>
       <c r="L22">
-        <v>1.057788864331591</v>
+        <v>1.021570392356781</v>
       </c>
       <c r="M22">
-        <v>1.068855772516386</v>
+        <v>1.03337946436011</v>
       </c>
       <c r="N22">
-        <v>1.021370492171343</v>
+        <v>1.008644824042146</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046779518228064</v>
+        <v>0.9886148087652574</v>
       </c>
       <c r="D23">
-        <v>1.05436128351041</v>
+        <v>1.016077441045744</v>
       </c>
       <c r="E23">
-        <v>1.054551180794331</v>
+        <v>1.00829864207593</v>
       </c>
       <c r="F23">
-        <v>1.065670327566077</v>
+        <v>1.020417996341132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044872724888932</v>
+        <v>1.047821389541163</v>
       </c>
       <c r="J23">
-        <v>1.053401853873219</v>
+        <v>1.019190946323358</v>
       </c>
       <c r="K23">
-        <v>1.057933884876455</v>
+        <v>1.031031393649037</v>
       </c>
       <c r="L23">
-        <v>1.058123090232841</v>
+        <v>1.023398429114145</v>
       </c>
       <c r="M23">
-        <v>1.069202196651117</v>
+        <v>1.03529183244455</v>
       </c>
       <c r="N23">
-        <v>1.021484485714395</v>
+        <v>1.00928811558</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048605112492233</v>
+        <v>0.9987081894235218</v>
       </c>
       <c r="D24">
-        <v>1.055808163255376</v>
+        <v>1.023971442786477</v>
       </c>
       <c r="E24">
-        <v>1.056136438932662</v>
+        <v>1.016640155230211</v>
       </c>
       <c r="F24">
-        <v>1.067300191937296</v>
+        <v>1.029060494940872</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045359839904922</v>
+        <v>1.051382949300901</v>
       </c>
       <c r="J24">
-        <v>1.054711076861702</v>
+        <v>1.026256057379268</v>
       </c>
       <c r="K24">
-        <v>1.059110525818727</v>
+        <v>1.037590276216444</v>
       </c>
       <c r="L24">
-        <v>1.059437703034554</v>
+        <v>1.030381219602494</v>
       </c>
       <c r="M24">
-        <v>1.070564541439589</v>
+        <v>1.042595797097245</v>
       </c>
       <c r="N24">
-        <v>1.021932325149851</v>
+        <v>1.011742762889061</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050722547293474</v>
+        <v>1.009835722784743</v>
       </c>
       <c r="D25">
-        <v>1.057485116605341</v>
+        <v>1.03269153312999</v>
       </c>
       <c r="E25">
-        <v>1.057976358906149</v>
+        <v>1.025872382121368</v>
       </c>
       <c r="F25">
-        <v>1.069191250888794</v>
+        <v>1.038621347489751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04591682746964</v>
+        <v>1.055252154629258</v>
       </c>
       <c r="J25">
-        <v>1.056226978936944</v>
+        <v>1.034036549759329</v>
       </c>
       <c r="K25">
-        <v>1.060471019730468</v>
+        <v>1.044802699585341</v>
       </c>
       <c r="L25">
-        <v>1.060960787204833</v>
+        <v>1.038081912971792</v>
       </c>
       <c r="M25">
-        <v>1.072142410604031</v>
+        <v>1.050648304969533</v>
       </c>
       <c r="N25">
-        <v>1.022450078181999</v>
+        <v>1.014444081506754</v>
       </c>
     </row>
   </sheetData>
